--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value771.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value771.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.017868549658156</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>2.933231737223108</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>3.956411090210759</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.17497848554586</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.190506634277446</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
